--- a/Posicionamiento_Competidores.xlsx
+++ b/Posicionamiento_Competidores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>TIPO DE COMPETENCIA</t>
   </si>
@@ -68,9 +68,6 @@
     <t>España</t>
   </si>
   <si>
-    <t>100 o más</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -135,6 +132,42 @@
   </si>
   <si>
     <t>Formación MUY diversa para jovenes y acompañamiento online en el proceso</t>
+  </si>
+  <si>
+    <t>SERVICIOS</t>
+  </si>
+  <si>
+    <t>Preparacion de oposiciones - Cantabria</t>
+  </si>
+  <si>
+    <t>42 € - 490 €</t>
+  </si>
+  <si>
+    <t>RANGO PRECIO CERRADO / SUSCRIPCIONES</t>
+  </si>
+  <si>
+    <t>Formación subvencionada</t>
+  </si>
+  <si>
+    <t>Gratuitos</t>
+  </si>
+  <si>
+    <t>Cursos subvencionados, Idiomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formación subvencionada, Preparacion de oposiciones </t>
+  </si>
+  <si>
+    <t>Gratuitos / 40 € - 140 €</t>
+  </si>
+  <si>
+    <t>Formación Profesional, Preparacion de oposiciones, otros cursos</t>
+  </si>
+  <si>
+    <t>No especificado</t>
+  </si>
+  <si>
+    <t>Preparacion de oposiciones - España, Formación subvencionada</t>
   </si>
 </sst>
 </file>
@@ -462,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +510,12 @@
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
     <col min="7" max="7" width="58.42578125" customWidth="1"/>
-    <col min="8" max="8" width="56" customWidth="1"/>
+    <col min="8" max="8" width="58" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,16 +532,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -523,16 +564,22 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -549,16 +596,22 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -575,16 +628,22 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -597,20 +656,26 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="E5">
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -627,18 +692,24 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -653,13 +724,19 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Posicionamiento_Competidores.xlsx
+++ b/Posicionamiento_Competidores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>TIPO DE COMPETENCIA</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Muy poca actividad</t>
   </si>
   <si>
-    <t xml:space="preserve">Muchas Redes - Activos en Twitter, Facebook </t>
-  </si>
-  <si>
     <t>Muchas Redes - Mucha actividad</t>
   </si>
   <si>
@@ -168,6 +165,45 @@
   </si>
   <si>
     <t>Preparacion de oposiciones - España, Formación subvencionada</t>
+  </si>
+  <si>
+    <t>AYTO. SANTANDER - Espacio Obras de Arte</t>
+  </si>
+  <si>
+    <t>CASOS DE ÉXITO</t>
+  </si>
+  <si>
+    <t>No resaltan ningun caso de éxito</t>
+  </si>
+  <si>
+    <t>Tiene opiniones positivas de sus estudiantes</t>
+  </si>
+  <si>
+    <t>Tiene opiniones muy positivas de sus estudiantes y trabajadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Muchas Redes - Activos en Twitter, Facebook </t>
+  </si>
+  <si>
+    <t>Completa y muestra sus patrocinios</t>
+  </si>
+  <si>
+    <t>Quiere ser completa pero está a medias</t>
+  </si>
+  <si>
+    <t>Es muy completa, obtienes la informacion que quieres, fácil contacto</t>
+  </si>
+  <si>
+    <t>Muy facil navegar, contacto fácil, y Cómoda</t>
+  </si>
+  <si>
+    <t>Tarda en cargar, es completa, innecesariamente llamativa</t>
+  </si>
+  <si>
+    <t>Muy descuidada eincompleta</t>
   </si>
 </sst>
 </file>
@@ -230,6 +266,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246397</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="409575"/>
+          <a:ext cx="179722" cy="158824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,11 +596,13 @@
     <col min="6" max="6" width="44" customWidth="1"/>
     <col min="7" max="7" width="58.42578125" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="62.85546875" customWidth="1"/>
+    <col min="10" max="10" width="70" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" customWidth="1"/>
+    <col min="12" max="12" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,22 +619,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -564,22 +657,28 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -596,22 +695,28 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -628,22 +733,28 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -660,22 +771,28 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -692,22 +809,28 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -724,22 +847,29 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>